--- a/biology/Botanique/Sapin_subalpin/Sapin_subalpin.xlsx
+++ b/biology/Botanique/Sapin_subalpin/Sapin_subalpin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abies lasiocarpa
 Le sapin subalpin ou sapin des Rocheuses (Abies lasiocarpa) est une espèce de  sapin de la famille des Pinaceae. 
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'étend sur l'ouest de l'Amérique du Nord. On le trouve présent dans les montagnes du Yukon, en Colombie-Britannique, à l'ouest de l'Alberta au Canada; au sud-est de l'Alaska, dans l'État de Washington, de l'Oregon, de l'Idaho, dans l'ouest du Montana, dans le Wyoming, en Utah, au Colorado, au Nouveau-Mexique, en Arizona, dans le nord-est du Nevada, et dans les montagnes du nord-ouest de la Californie aux États-Unis. On le trouve à des altitudes comprises entre 300 et 900 m au nord et entre 2 400 et 3 650 m au sud de sa zone d'expansion. On le retrouve fréquemment au niveau de la limite des arbres.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est de taille moyenne (20 mètres) mais peut atteindre parfois les 40 à 50 mètres avec un tronc de 1 mètre de diamètre. L'écorce des jeunes sapins est lisse et grisâtre et devient rugueuse et fissurée sur les vieux arbres. Le feuillage est constitué d'épines de 1,5 à 3 cm de long de couleur verte mais avec deux lignes de stomates bleues/blanches au-dessous.
 Les cônes sont orientés vers le haut, ont une taille de 6 à 12 cm, de couleur brune-noirâtre avec une pubescence jaune-brune. Le cône se décompose au début de l'automne pour libérer ses semences.
@@ -575,7 +591,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe trois taxons de sapins subalpins :
 Abies lasiocarpa var. lasiocarpa - Le sapin subalpin côtier dans les régions proches de l'océan Pacifique.
@@ -609,9 +627,11 @@
           <t>Pathogène</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le nord des Montagnes Rocheuses, le Sapin subalpin est particulièrement sujet à la maladie du balai de sorcière due à Melampsorella caryophyllacearum où 70 à 95% des arbres sont atteints et où certains portent plusieurs douzaines de balais[1]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le nord des Montagnes Rocheuses, le Sapin subalpin est particulièrement sujet à la maladie du balai de sorcière due à Melampsorella caryophyllacearum où 70 à 95% des arbres sont atteints et où certains portent plusieurs douzaines de balais. 
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois de l'arbre est utilisé en construction et en papeterie. On l'utilise aussi pour en faire des sapins de Noël.
 </t>
